--- a/final-outputs/Table D Property.xlsx
+++ b/final-outputs/Table D Property.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\international-tax-competitiveness-index\final-outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2703045-ED84-402C-8A8B-BD2911F3374B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -305,9 +313,6 @@
     <t>(c) The Land Appreciation Tax is levied like a capital gains tax on the sale of property.</t>
   </si>
   <si>
-    <t>(d) The Land Appreciation Tax is levied like a capital gains tax on the sale of property.</t>
-  </si>
-  <si>
     <t>(e) The purchaser of real property is subject to a purchase tax.</t>
   </si>
   <si>
@@ -434,9 +439,6 @@
     <t>Many Cantons Levy Both Estate and Gift Taxes</t>
   </si>
   <si>
-    <t>Capital/Asset Taxes</t>
-  </si>
-  <si>
     <t>Transfer Taxes</t>
   </si>
   <si>
@@ -480,16 +482,21 @@
   </si>
   <si>
     <t>Financial Transaction Tax</t>
+  </si>
+  <si>
+    <t>(d) Levied by local governments. A few cities tax capital improvements.</t>
+  </si>
+  <si>
+    <t>Capital/Transaction Taxes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -501,7 +508,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -519,19 +526,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -571,7 +887,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
@@ -580,13 +896,13 @@
         <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
         <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
@@ -598,7 +914,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -606,34 +922,34 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" t="s">
         <v>131</v>
       </c>
-      <c r="G3" t="s">
-        <v>132</v>
-      </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -641,34 +957,34 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -676,34 +992,34 @@
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -711,34 +1027,34 @@
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -746,34 +1062,34 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -781,34 +1097,34 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -816,34 +1132,34 @@
         <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -851,34 +1167,34 @@
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -886,34 +1202,34 @@
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -921,34 +1237,34 @@
         <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -956,34 +1272,34 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -991,34 +1307,34 @@
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1026,34 +1342,34 @@
         <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1061,34 +1377,34 @@
         <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1096,34 +1412,34 @@
         <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1131,34 +1447,34 @@
         <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1166,34 +1482,34 @@
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1201,34 +1517,34 @@
         <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1236,34 +1552,34 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1271,34 +1587,34 @@
         <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1306,34 +1622,34 @@
         <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1341,34 +1657,34 @@
         <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1376,34 +1692,34 @@
         <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1411,34 +1727,34 @@
         <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1446,34 +1762,34 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1481,34 +1797,34 @@
         <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1516,34 +1832,34 @@
         <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1551,34 +1867,34 @@
         <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1586,34 +1902,34 @@
         <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1621,34 +1937,34 @@
         <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1656,34 +1972,34 @@
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1691,34 +2007,34 @@
         <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1726,34 +2042,34 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1761,34 +2077,34 @@
         <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1796,34 +2112,34 @@
         <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1831,34 +2147,34 @@
         <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1866,34 +2182,34 @@
         <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1928,7 +2244,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1963,7 +2279,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1998,7 +2314,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -2033,12 +2349,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="C44" t="s">
         <v>55</v>
@@ -2068,12 +2384,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
         <v>55</v>
@@ -2103,12 +2419,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
         <v>55</v>
@@ -2139,6 +2455,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/final-outputs/Table D Property.xlsx
+++ b/final-outputs/Table D Property.xlsx
@@ -1,21 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\international-tax-competitiveness-index\final-outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2703045-ED84-402C-8A8B-BD2911F3374B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -313,6 +305,9 @@
     <t>(c) The Land Appreciation Tax is levied like a capital gains tax on the sale of property.</t>
   </si>
   <si>
+    <t>(d) Levied by local governments. A few cities tax capital improvements.</t>
+  </si>
+  <si>
     <t>(e) The purchaser of real property is subject to a purchase tax.</t>
   </si>
   <si>
@@ -439,6 +434,9 @@
     <t>Many Cantons Levy Both Estate and Gift Taxes</t>
   </si>
   <si>
+    <t>Capital/Transaction Taxes</t>
+  </si>
+  <si>
     <t>Transfer Taxes</t>
   </si>
   <si>
@@ -482,21 +480,16 @@
   </si>
   <si>
     <t>Financial Transaction Tax</t>
-  </si>
-  <si>
-    <t>(d) Levied by local governments. A few cities tax capital improvements.</t>
-  </si>
-  <si>
-    <t>Capital/Transaction Taxes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -508,7 +501,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -526,328 +519,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -879,7 +563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -887,7 +571,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
@@ -896,13 +580,13 @@
         <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
         <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
@@ -914,7 +598,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -922,34 +606,34 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -957,34 +641,34 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -992,34 +676,34 @@
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1027,34 +711,34 @@
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1062,34 +746,34 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1097,34 +781,34 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1132,34 +816,34 @@
         <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1167,34 +851,34 @@
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1202,34 +886,34 @@
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1237,34 +921,34 @@
         <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1272,34 +956,34 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1307,34 +991,34 @@
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1342,34 +1026,34 @@
         <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1377,34 +1061,34 @@
         <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1412,34 +1096,34 @@
         <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1447,34 +1131,34 @@
         <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1482,34 +1166,34 @@
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1517,34 +1201,34 @@
         <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1552,34 +1236,34 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1587,34 +1271,34 @@
         <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1622,34 +1306,34 @@
         <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1657,34 +1341,34 @@
         <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1692,34 +1376,34 @@
         <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1727,34 +1411,34 @@
         <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1762,34 +1446,34 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1797,34 +1481,34 @@
         <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1832,34 +1516,34 @@
         <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1867,34 +1551,34 @@
         <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1902,34 +1586,34 @@
         <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1937,34 +1621,34 @@
         <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1972,34 +1656,34 @@
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2007,34 +1691,34 @@
         <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2042,34 +1726,34 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2077,34 +1761,34 @@
         <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2112,34 +1796,34 @@
         <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H37" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2147,34 +1831,34 @@
         <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I38" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2182,34 +1866,34 @@
         <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2244,7 +1928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2279,7 +1963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -2314,7 +1998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -2349,12 +2033,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
         <v>55</v>
@@ -2384,12 +2068,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45">
       <c r="A45" t="s">
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
         <v>55</v>
@@ -2419,12 +2103,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46">
       <c r="A46" t="s">
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
         <v>55</v>
@@ -2455,6 +2139,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/final-outputs/Table D Property.xlsx
+++ b/final-outputs/Table D Property.xlsx
@@ -422,16 +422,16 @@
     <t>Inheritances and Gifts are subject to income tax</t>
   </si>
   <si>
-    <t>Inheritance Tax; Income Tax Can Apply on Gifts</t>
-  </si>
-  <si>
-    <t>Income Tax Can Apply, Some Gifts Can be Taxed, Real Estate Transfer Tax Can Apply</t>
-  </si>
-  <si>
-    <t>Stamp Duty Applies to Inheritance and Gifts</t>
-  </si>
-  <si>
-    <t>Many Cantons Levy Both Estate and Gift Taxes</t>
+    <t>Inheritance Tax; Income Tax can apply on Gifts</t>
+  </si>
+  <si>
+    <t>Income Tax can apply, some gifts can be taxed, Real Estate Transfer Tax can apply</t>
+  </si>
+  <si>
+    <t>Stamp Duty applies to Inheritance and Gifts</t>
+  </si>
+  <si>
+    <t>Many cantons levy both Estate and Gift Taxes</t>
   </si>
   <si>
     <t>Capital/Transaction Taxes</t>

--- a/final-outputs/Table D Property.xlsx
+++ b/final-outputs/Table D Property.xlsx
@@ -425,7 +425,7 @@
     <t>Inheritance Tax; Income Tax can apply on Gifts</t>
   </si>
   <si>
-    <t>Income Tax can apply, some gifts can be taxed, Real Estate Transfer Tax can apply</t>
+    <t>Income Tax can apply, some Gifts can be taxed, Real Estate Transfer Tax can apply</t>
   </si>
   <si>
     <t>Stamp Duty applies to Inheritance and Gifts</t>

--- a/final-outputs/Table D Property.xlsx
+++ b/final-outputs/Table D Property.xlsx
@@ -425,7 +425,7 @@
     <t>Inheritance Tax; Income Tax can apply on Gifts</t>
   </si>
   <si>
-    <t>Income Tax can apply, some Gifts can be taxed, Real Estate Transfer Tax can apply</t>
+    <t>Income Tax can apply, some gifts can be taxed, Real Estate Transfer Tax can apply</t>
   </si>
   <si>
     <t>Stamp Duty applies to Inheritance and Gifts</t>

--- a/final-outputs/Table D Property.xlsx
+++ b/final-outputs/Table D Property.xlsx
@@ -12,23 +12,146 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="631">
+  <si>
+    <t>ISO_2</t>
+  </si>
+  <si>
+    <t>ISO_3</t>
+  </si>
   <si>
     <t>country</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>corporate_rate</t>
+  </si>
+  <si>
+    <t>loss_carryback</t>
+  </si>
+  <si>
+    <t>loss_carryforward</t>
+  </si>
+  <si>
+    <t>machines_cost_recovery</t>
+  </si>
+  <si>
+    <t>buildings_cost_recovery</t>
+  </si>
+  <si>
+    <t>intangibles_cost_recovery</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>patent_box</t>
+  </si>
+  <si>
+    <t>r_and_d_credit</t>
+  </si>
+  <si>
+    <t>corporate_time</t>
+  </si>
+  <si>
+    <t>profit_payments</t>
+  </si>
+  <si>
+    <t>other_payments</t>
+  </si>
+  <si>
+    <t>top_income_rate</t>
+  </si>
+  <si>
+    <t>threshold_top_income_rate</t>
+  </si>
+  <si>
+    <t>tax_wedge</t>
+  </si>
+  <si>
+    <t>labor_payments</t>
+  </si>
+  <si>
+    <t>labor_time</t>
+  </si>
+  <si>
+    <t>capital_gains_rate</t>
+  </si>
+  <si>
+    <t>index_capital_gains</t>
+  </si>
+  <si>
+    <t>dividends_rate</t>
+  </si>
+  <si>
+    <t>vat_rate</t>
+  </si>
+  <si>
+    <t>vat_threshold</t>
+  </si>
+  <si>
+    <t>vat_base</t>
+  </si>
+  <si>
+    <t>consumption_time</t>
+  </si>
+  <si>
+    <t>property_tax</t>
+  </si>
+  <si>
+    <t>property_tax_collections</t>
+  </si>
+  <si>
+    <t>net_wealth</t>
+  </si>
+  <si>
+    <t>estate_or_inheritance_tax</t>
+  </si>
+  <si>
+    <t>transfer_tax</t>
+  </si>
+  <si>
+    <t>asset_tax</t>
+  </si>
+  <si>
+    <t>capital_duties</t>
+  </si>
+  <si>
+    <t>financial_transaction_tax</t>
+  </si>
+  <si>
+    <t>dividends_exemption</t>
+  </si>
+  <si>
+    <t>capital_gains_exemption</t>
+  </si>
+  <si>
+    <t>country_limitations</t>
+  </si>
+  <si>
+    <t>dividends_withholding_tax</t>
+  </si>
+  <si>
+    <t>interest_withholding_tax</t>
+  </si>
+  <si>
+    <t>royalties_withholding_tax</t>
+  </si>
+  <si>
+    <t>tax_treaties</t>
+  </si>
+  <si>
+    <t>cfc_rules</t>
+  </si>
+  <si>
+    <t>thin_capitalization_rules</t>
+  </si>
+  <si>
     <t>propertytaxes</t>
   </si>
   <si>
-    <t>deductible</t>
-  </si>
-  <si>
-    <t>propertytaxescollections</t>
-  </si>
-  <si>
-    <t>netwealth</t>
-  </si>
-  <si>
     <t>estate.inheritance.tax</t>
   </si>
   <si>
@@ -38,12 +161,6 @@
     <t>Assettaxes</t>
   </si>
   <si>
-    <t>capitalduties</t>
-  </si>
-  <si>
-    <t>financialtrans</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -185,6 +302,252 @@
     <t>Country</t>
   </si>
   <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>(a) Applies to some real estate (vacation homes).</t>
+  </si>
+  <si>
+    <t>(b) Tax on the imputed rent of properties. Applies to machinery.</t>
+  </si>
+  <si>
+    <t>(c) The Land Appreciation Tax is levied like a capital gains tax on the sale of property.</t>
+  </si>
+  <si>
+    <t>(d) Levied by local governments. A few cities tax capital improvements.</t>
+  </si>
+  <si>
+    <t>(e) The purchaser of real property is subject to a purchase tax.</t>
+  </si>
+  <si>
+    <t>(f) Nine U.S. states levy a tax on intangible personal property.</t>
+  </si>
+  <si>
+    <t>Real Property Taxes</t>
+  </si>
+  <si>
+    <t>Real Property or Land Tax</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Real Property Taxes Deductible</t>
+  </si>
+  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -293,31 +656,1177 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>(a) Applies to some real estate (vacation homes).</t>
-  </si>
-  <si>
-    <t>(b) Tax on the imputed rent of properties. Applies to machinery.</t>
-  </si>
-  <si>
-    <t>(c) The Land Appreciation Tax is levied like a capital gains tax on the sale of property.</t>
-  </si>
-  <si>
-    <t>(d) Levied by local governments. A few cities tax capital improvements.</t>
-  </si>
-  <si>
-    <t>(e) The purchaser of real property is subject to a purchase tax.</t>
-  </si>
-  <si>
-    <t>(f) Nine U.S. states levy a tax on intangible personal property.</t>
-  </si>
-  <si>
-    <t>Real Property Taxes</t>
-  </si>
-  <si>
-    <t>Real Property or Land Tax</t>
+    <t>Real Property Taxes as % of Capital Stock</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Wealth/Estate Taxes</t>
+  </si>
+  <si>
+    <t>Net Wealth Tax</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.2958</t>
+  </si>
+  <si>
+    <t>0.268</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3443</t>
+  </si>
+  <si>
+    <t>0.29889263</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.278064</t>
+  </si>
+  <si>
+    <t>0.2974</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.2494</t>
+  </si>
+  <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.214</t>
+  </si>
+  <si>
+    <t>0.21148581</t>
+  </si>
+  <si>
+    <t>0.25886141</t>
+  </si>
+  <si>
+    <t>Estate/Inheritance Tax</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Capital/Transaction Taxes</t>
+  </si>
+  <si>
+    <t>Transfer Taxes</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Asset Taxes</t>
+  </si>
+  <si>
+    <t>0.851484971473245</t>
+  </si>
+  <si>
+    <t>0.813463195231154</t>
+  </si>
+  <si>
+    <t>0.882216122406083</t>
+  </si>
+  <si>
+    <t>0.632611659769417</t>
+  </si>
+  <si>
+    <t>0.873879108036537</t>
+  </si>
+  <si>
+    <t>0.826923076923077</t>
+  </si>
+  <si>
+    <t>0.857738015451725</t>
+  </si>
+  <si>
+    <t>0.737888702767901</t>
+  </si>
+  <si>
+    <t>0.816200383417959</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.787075165170195</t>
+  </si>
+  <si>
+    <t>0.869865253929667</t>
+  </si>
+  <si>
+    <t>0.760252585046526</t>
+  </si>
+  <si>
+    <t>0.769602272727273</t>
+  </si>
+  <si>
+    <t>0.921720532319392</t>
+  </si>
+  <si>
+    <t>0.918446601941748</t>
+  </si>
+  <si>
+    <t>0.864209076145449</t>
+  </si>
+  <si>
+    <t>0.965116279069767</t>
+  </si>
+  <si>
+    <t>0.746588594704684</t>
+  </si>
+  <si>
+    <t>0.781818181818182</t>
+  </si>
+  <si>
+    <t>0.888411247396436</t>
+  </si>
+  <si>
+    <t>0.778563038959402</t>
+  </si>
+  <si>
+    <t>0.876323174170354</t>
+  </si>
+  <si>
+    <t>0.758823529411765</t>
+  </si>
+  <si>
+    <t>Capital Duties</t>
+  </si>
+  <si>
+    <t>0.479318672008477</t>
+  </si>
+  <si>
+    <t>0.391406012913837</t>
+  </si>
+  <si>
+    <t>0.622404878792567</t>
+  </si>
+  <si>
+    <t>0.426086956521739</t>
+  </si>
+  <si>
+    <t>0.338474732816403</t>
+  </si>
+  <si>
+    <t>0.543222830616488</t>
+  </si>
+  <si>
+    <t>0.518965517241379</t>
+  </si>
+  <si>
+    <t>0.547953910556565</t>
+  </si>
+  <si>
+    <t>0.278958448750364</t>
+  </si>
+  <si>
+    <t>0.602353618717047</t>
+  </si>
+  <si>
+    <t>0.462657542127945</t>
+  </si>
+  <si>
+    <t>0.838302752293578</t>
+  </si>
+  <si>
+    <t>0.310056925996205</t>
+  </si>
+  <si>
+    <t>0.373913043478261</t>
+  </si>
+  <si>
+    <t>0.652728119257913</t>
+  </si>
+  <si>
+    <t>0.554838709677419</t>
+  </si>
+  <si>
+    <t>0.34958311169213</t>
+  </si>
+  <si>
+    <t>Financial Transaction Tax</t>
+  </si>
+  <si>
+    <t>0.802532679160089</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.841318847888109</t>
+  </si>
+  <si>
+    <t>0.81340644290143</t>
+  </si>
+  <si>
+    <t>0.812269350072009</t>
+  </si>
+  <si>
+    <t>0.980369718309859</t>
+  </si>
+  <si>
+    <t>0.905263157894737</t>
+  </si>
+  <si>
+    <t>0.632327782275491</t>
+  </si>
+  <si>
+    <t>0.632751338890881</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.60215738</t>
+  </si>
+  <si>
+    <t>0.535296</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.311</t>
+  </si>
+  <si>
+    <t>0.558584</t>
+  </si>
+  <si>
+    <t>0.32391111</t>
+  </si>
+  <si>
+    <t>0.58435142</t>
+  </si>
+  <si>
+    <t>0.55572</t>
+  </si>
+  <si>
+    <t>0.47475</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.443904</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.52765573</t>
+  </si>
+  <si>
+    <t>0.56077165</t>
+  </si>
+  <si>
+    <t>0.47428129</t>
+  </si>
+  <si>
+    <t>0.38946</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.4718</t>
+  </si>
+  <si>
+    <t>0.52266995</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>0.39908085</t>
+  </si>
+  <si>
+    <t>0.5817</t>
+  </si>
+  <si>
+    <t>0.3505</t>
+  </si>
+  <si>
+    <t>0.6105</t>
+  </si>
+  <si>
+    <t>0.435</t>
+  </si>
+  <si>
+    <t>0.6012</t>
+  </si>
+  <si>
+    <t>0.41721638</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>2.098449</t>
+  </si>
+  <si>
+    <t>23.269194</t>
+  </si>
+  <si>
+    <t>1.053602</t>
+  </si>
+  <si>
+    <t>4.123721</t>
+  </si>
+  <si>
+    <t>7.705643</t>
+  </si>
+  <si>
+    <t>0.322415</t>
+  </si>
+  <si>
+    <t>1.28641</t>
+  </si>
+  <si>
+    <t>0.894225</t>
+  </si>
+  <si>
+    <t>1.88875</t>
+  </si>
+  <si>
+    <t>14.342621</t>
+  </si>
+  <si>
+    <t>5.377903</t>
+  </si>
+  <si>
+    <t>10.989387</t>
+  </si>
+  <si>
+    <t>1.220591</t>
+  </si>
+  <si>
+    <t>1.497499</t>
+  </si>
+  <si>
+    <t>4.189243</t>
+  </si>
+  <si>
+    <t>2.660988</t>
+  </si>
+  <si>
+    <t>8.523732</t>
+  </si>
+  <si>
+    <t>11.411545</t>
+  </si>
+  <si>
+    <t>5.201247</t>
+  </si>
+  <si>
+    <t>0.410051</t>
+  </si>
+  <si>
+    <t>3.601462</t>
+  </si>
+  <si>
+    <t>28.657892</t>
+  </si>
+  <si>
+    <t>1.396044</t>
+  </si>
+  <si>
+    <t>1.159718</t>
+  </si>
+  <si>
+    <t>1.612888</t>
+  </si>
+  <si>
+    <t>1.857583</t>
+  </si>
+  <si>
+    <t>15.313676</t>
+  </si>
+  <si>
+    <t>3.35728</t>
+  </si>
+  <si>
+    <t>4.842731</t>
+  </si>
+  <si>
+    <t>2.409703</t>
+  </si>
+  <si>
+    <t>1.489688</t>
+  </si>
+  <si>
+    <t>3.30769</t>
+  </si>
+  <si>
+    <t>3.008828</t>
+  </si>
+  <si>
+    <t>3.81405</t>
+  </si>
+  <si>
+    <t>9.317343</t>
+  </si>
+  <si>
+    <t>1.36161255752027</t>
+  </si>
+  <si>
+    <t>1.1217583937524</t>
+  </si>
+  <si>
+    <t>1.25922166287196</t>
+  </si>
+  <si>
+    <t>1.17806525296873</t>
+  </si>
+  <si>
+    <t>1.25283729050685</t>
+  </si>
+  <si>
+    <t>1.10576053466434</t>
+  </si>
+  <si>
+    <t>1.30513804617432</t>
+  </si>
+  <si>
+    <t>1.20692450210511</t>
+  </si>
+  <si>
+    <t>1.30610786697143</t>
+  </si>
+  <si>
+    <t>1.25247443832651</t>
+  </si>
+  <si>
+    <t>1.10058056727888</t>
+  </si>
+  <si>
+    <t>1.24246520483928</t>
+  </si>
+  <si>
+    <t>1.27841004548958</t>
+  </si>
+  <si>
+    <t>1.46752376372534</t>
+  </si>
+  <si>
+    <t>1.70203840252696</t>
+  </si>
+  <si>
+    <t>1.24268824305587</t>
+  </si>
+  <si>
+    <t>1.13468336003855</t>
+  </si>
+  <si>
+    <t>1.24277078776333</t>
+  </si>
+  <si>
+    <t>1.11235837219153</t>
+  </si>
+  <si>
+    <t>1.11016943750264</t>
+  </si>
+  <si>
+    <t>1.3796009484275</t>
+  </si>
+  <si>
+    <t>1.22541089373791</t>
+  </si>
+  <si>
+    <t>1.33931976589556</t>
+  </si>
+  <si>
+    <t>1.45683627094634</t>
+  </si>
+  <si>
+    <t>1.24997540546145</t>
+  </si>
+  <si>
+    <t>1.03387517587815</t>
+  </si>
+  <si>
+    <t>1.27366379444072</t>
+  </si>
+  <si>
+    <t>1.10519624887834</t>
+  </si>
+  <si>
+    <t>1.26779478290572</t>
+  </si>
+  <si>
+    <t>1.21576799276324</t>
+  </si>
+  <si>
+    <t>1.23696029584554</t>
+  </si>
+  <si>
+    <t>1.35253868781859</t>
+  </si>
+  <si>
+    <t>1.18922800976239</t>
+  </si>
+  <si>
+    <t>1.38825375214752</t>
+  </si>
+  <si>
+    <t>1.24630480803526</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>124.5</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>70.5</t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>0.2675</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.26375</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.204</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.3168</t>
+  </si>
+  <si>
+    <t>0.238</t>
+  </si>
+  <si>
+    <t>0.2428</t>
+  </si>
+  <si>
+    <t>0.39344076</t>
+  </si>
+  <si>
+    <t>0.13333333</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.2032</t>
+  </si>
+  <si>
+    <t>0.4028</t>
+  </si>
+  <si>
+    <t>0.17142857</t>
+  </si>
+  <si>
+    <t>0.06944444</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.21135</t>
+  </si>
+  <si>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.29275433</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>50950.9831162029</t>
+  </si>
+  <si>
+    <t>37457.4389849533</t>
+  </si>
+  <si>
+    <t>31109.1533083962</t>
+  </si>
+  <si>
+    <t>23975.8898451717</t>
+  </si>
+  <si>
+    <t>76296.5356413544</t>
+  </si>
+  <si>
+    <t>6907.63633670914</t>
+  </si>
+  <si>
+    <t>72611.8858395931</t>
+  </si>
+  <si>
+    <t>11062.4119155451</t>
+  </si>
+  <si>
+    <t>103912.923981672</t>
+  </si>
+  <si>
+    <t>22456.2808292655</t>
+  </si>
+  <si>
+    <t>16710.6993594789</t>
+  </si>
+  <si>
+    <t>57601.502523673</t>
+  </si>
+  <si>
+    <t>14202.1555989162</t>
+  </si>
+  <si>
+    <t>92218.141398691</t>
+  </si>
+  <si>
+    <t>26132.3890060412</t>
+  </si>
+  <si>
+    <t>90380.9627102053</t>
+  </si>
+  <si>
+    <t>100407.568377102</t>
+  </si>
+  <si>
+    <t>34205.4862364084</t>
+  </si>
+  <si>
+    <t>79773.9207087115</t>
+  </si>
+  <si>
+    <t>97563.0907987165</t>
+  </si>
+  <si>
+    <t>33690.3764562665</t>
+  </si>
+  <si>
+    <t>1650.19336094698</t>
+  </si>
+  <si>
+    <t>40813.1614282974</t>
+  </si>
+  <si>
+    <t>4916.69351181324</t>
+  </si>
+  <si>
+    <t>111214.726164321</t>
+  </si>
+  <si>
+    <t>16886.4437318365</t>
+  </si>
+  <si>
+    <t>100763.364958068</t>
+  </si>
+  <si>
+    <t>83256.737135169</t>
+  </si>
+  <si>
+    <t>3296.89096588135</t>
+  </si>
+  <si>
+    <t>81953.3750858462</t>
+  </si>
+  <si>
+    <t>119167.287037543</t>
+  </si>
+  <si>
+    <t>0.495677137783973</t>
+  </si>
+  <si>
+    <t>0.595346920500117</t>
+  </si>
+  <si>
+    <t>0.476392998987602</t>
+  </si>
+  <si>
+    <t>0.474503207079933</t>
+  </si>
+  <si>
+    <t>0.638025880525371</t>
+  </si>
+  <si>
+    <t>0.600302406645114</t>
+  </si>
+  <si>
+    <t>0.596063795426487</t>
+  </si>
+  <si>
+    <t>0.728150828092231</t>
+  </si>
+  <si>
+    <t>0.543890115085756</t>
+  </si>
+  <si>
+    <t>0.48566405924343</t>
+  </si>
+  <si>
+    <t>0.556567367932321</t>
+  </si>
+  <si>
+    <t>0.436878506277984</t>
+  </si>
+  <si>
+    <t>0.567176393235143</t>
+  </si>
+  <si>
+    <t>0.546822043581059</t>
+  </si>
+  <si>
+    <t>0.498533689864113</t>
+  </si>
+  <si>
+    <t>0.632540965239364</t>
+  </si>
+  <si>
+    <t>0.378756793044304</t>
+  </si>
+  <si>
+    <t>0.7125070110352</t>
+  </si>
+  <si>
+    <t>0.696451079081173</t>
+  </si>
+  <si>
+    <t>0.55204813174365</t>
+  </si>
+  <si>
+    <t>0.506629640715944</t>
+  </si>
+  <si>
+    <t>0.920716527656256</t>
+  </si>
+  <si>
+    <t>0.334129712488695</t>
+  </si>
+  <si>
+    <t>0.514299988155268</t>
+  </si>
+  <si>
+    <t>0.95224411225627</t>
+  </si>
+  <si>
+    <t>0.565921326183334</t>
+  </si>
+  <si>
+    <t>0.441385620326629</t>
+  </si>
+  <si>
+    <t>0.492153165545173</t>
+  </si>
+  <si>
+    <t>0.495470639649474</t>
+  </si>
+  <si>
+    <t>0.583747031500922</t>
+  </si>
+  <si>
+    <t>0.430877668728623</t>
+  </si>
+  <si>
+    <t>0.597513703470289</t>
+  </si>
+  <si>
+    <t>0.682580340126438</t>
+  </si>
+  <si>
+    <t>0.400067337416955</t>
+  </si>
+  <si>
+    <t>0.438381144265963</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>123.5</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>0.970719391454096</t>
+  </si>
+  <si>
+    <t>0.126634842884256</t>
+  </si>
+  <si>
+    <t>0.752708531016413</t>
+  </si>
+  <si>
+    <t>1.93611681582879</t>
+  </si>
+  <si>
+    <t>0.540351120860356</t>
+  </si>
+  <si>
+    <t>0.124085310155285</t>
+  </si>
+  <si>
+    <t>0.933099745496656</t>
+  </si>
+  <si>
+    <t>0.162259402164862</t>
+  </si>
+  <si>
+    <t>0.484884785684177</t>
+  </si>
+  <si>
+    <t>1.70748038132408</t>
+  </si>
+  <si>
+    <t>0.282001557736199</t>
+  </si>
+  <si>
+    <t>1.42059186465177</t>
+  </si>
+  <si>
+    <t>0.406973844552963</t>
+  </si>
+  <si>
+    <t>1.32450050663432</t>
+  </si>
+  <si>
+    <t>0.502754134930928</t>
+  </si>
+  <si>
+    <t>1.58229586229205</t>
+  </si>
+  <si>
+    <t>0.776039563260252</t>
+  </si>
+  <si>
+    <t>1.13103595851161</t>
+  </si>
+  <si>
+    <t>0.449409802110167</t>
+  </si>
+  <si>
+    <t>0.58474524753345</t>
+  </si>
+  <si>
+    <t>0.324300491749063</t>
+  </si>
+  <si>
+    <t>0.0619695172983627</t>
+  </si>
+  <si>
+    <t>0.144168975482718</t>
+  </si>
+  <si>
+    <t>0.666350571382383</t>
+  </si>
+  <si>
+    <t>1.55609549321494</t>
+  </si>
+  <si>
+    <t>0.276973946213346</t>
+  </si>
+  <si>
+    <t>1.10822639953743</t>
+  </si>
+  <si>
+    <t>0.605661002403662</t>
+  </si>
+  <si>
+    <t>0.27547019811219</t>
+  </si>
+  <si>
+    <t>0.344102633301383</t>
+  </si>
+  <si>
+    <t>0.703302081238721</t>
+  </si>
+  <si>
+    <t>0.480850798908148</t>
+  </si>
+  <si>
+    <t>0.103213246119261</t>
+  </si>
+  <si>
+    <t>0.203411292297348</t>
+  </si>
+  <si>
+    <t>2.6079351730449</t>
+  </si>
+  <si>
+    <t>2.03537407185037</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.15825</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>0.333333333333333</t>
+  </si>
+  <si>
+    <t>0.666666666666667</t>
   </si>
   <si>
     <t>Land Tax Levied by Individual States (a)</t>
@@ -338,148 +1847,64 @@
     <t>Land Value Tax (d)</t>
   </si>
   <si>
-    <t>Real Property Taxes Deductible</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Inheritance and Gift Tax</t>
+  </si>
+  <si>
+    <t>Inheritances and gifts are subject to Income Tax</t>
+  </si>
+  <si>
+    <t>Inheritance Tax; Gifts are subject to Income Tax</t>
+  </si>
+  <si>
+    <t>Income Tax can apply to estates, some Gifts are subject to Income Tax, and Real Estate Transfer Tax can apply</t>
+  </si>
+  <si>
+    <t>Stamp Duty applies to Inheritance and Gifts</t>
+  </si>
+  <si>
+    <t>Many cantons levy both Estate and Gift Taxes</t>
+  </si>
+  <si>
+    <t>Stamp Duty on Transfer of Real Property</t>
+  </si>
+  <si>
+    <t>Real Estate Transfer Tax</t>
+  </si>
+  <si>
+    <t>Real Estate and Real Property Transfer Tax</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>Real Property Transfer Tax</t>
+  </si>
+  <si>
+    <t>Real Estate Transfer Tax and Stamp Tax</t>
+  </si>
+  <si>
+    <t>Real Estate Transfer Tax (e)</t>
+  </si>
+  <si>
+    <t>Bank Tax</t>
+  </si>
+  <si>
+    <t>Bank Tax in certain provinces</t>
+  </si>
+  <si>
+    <t>Yearly Fee on tax-adjusted equity</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Real Property Taxes as % of Capital Stock</t>
-  </si>
-  <si>
-    <t>1.0%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>0.8%</t>
-  </si>
-  <si>
-    <t>1.9%</t>
-  </si>
-  <si>
-    <t>0.5%</t>
-  </si>
-  <si>
-    <t>0.9%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>1.7%</t>
-  </si>
-  <si>
-    <t>0.3%</t>
-  </si>
-  <si>
-    <t>1.4%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
-  </si>
-  <si>
-    <t>1.3%</t>
-  </si>
-  <si>
-    <t>1.6%</t>
-  </si>
-  <si>
-    <t>1.1%</t>
-  </si>
-  <si>
-    <t>0.6%</t>
-  </si>
-  <si>
-    <t>0.7%</t>
-  </si>
-  <si>
-    <t>2.6%</t>
-  </si>
-  <si>
-    <t>2.0%</t>
-  </si>
-  <si>
-    <t>Wealth/Estate Taxes</t>
-  </si>
-  <si>
-    <t>Net Wealth Tax</t>
-  </si>
-  <si>
-    <t>Estate/Inheritance Tax</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Inheritance and Gift Tax</t>
-  </si>
-  <si>
-    <t>Inheritances and Gifts are subject to income tax</t>
-  </si>
-  <si>
-    <t>Inheritance Tax; Income Tax can apply on Gifts</t>
-  </si>
-  <si>
-    <t>Income Tax can apply, some Gifts can be taxed, Real Estate Transfer Tax can apply</t>
-  </si>
-  <si>
-    <t>Stamp Duty applies to Inheritance and Gifts</t>
-  </si>
-  <si>
-    <t>Many cantons levy both Estate and Gift Taxes</t>
-  </si>
-  <si>
-    <t>Capital/Transaction Taxes</t>
-  </si>
-  <si>
-    <t>Transfer Taxes</t>
-  </si>
-  <si>
-    <t>Stamp Duty on Transfer of Real Property</t>
-  </si>
-  <si>
-    <t>Real Estate Transfer Tax</t>
-  </si>
-  <si>
-    <t>Real Estate and Real Property Transfer Tax</t>
-  </si>
-  <si>
-    <t>Real Property Transfer Tax</t>
-  </si>
-  <si>
-    <t>Real Estate Transfer Tax and Stamp Tax</t>
-  </si>
-  <si>
-    <t>Real Estate Transfer Tax (e)</t>
-  </si>
-  <si>
-    <t>Asset Taxes</t>
-  </si>
-  <si>
-    <t>Bank Tax</t>
-  </si>
-  <si>
-    <t>Bank Tax in certain provinces</t>
-  </si>
-  <si>
-    <t>Yearly Fee on tax-adjusted equity</t>
-  </si>
-  <si>
     <t>Tax on Corporate Net Assets</t>
   </si>
   <si>
     <t>Intangible Property Taxes (f)</t>
-  </si>
-  <si>
-    <t>Capital Duties</t>
-  </si>
-  <si>
-    <t>Financial Transaction Tax</t>
   </si>
 </sst>
 </file>
@@ -562,1580 +1987,6962 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>246</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="L2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" t="s">
+        <v>246</v>
+      </c>
+      <c r="S2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V2" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="J3" t="s">
-        <v>154</v>
+        <v>280</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>298</v>
+      </c>
+      <c r="L3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" t="s">
+        <v>177</v>
+      </c>
+      <c r="O3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P3" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>241</v>
+      </c>
+      <c r="R3" t="s">
+        <v>247</v>
+      </c>
+      <c r="S3" t="s">
+        <v>255</v>
+      </c>
+      <c r="T3" t="s">
+        <v>280</v>
+      </c>
+      <c r="U3" t="s">
+        <v>298</v>
+      </c>
+      <c r="V3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" t="s">
+        <v>140</v>
+      </c>
+      <c r="X3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>256</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>288</v>
+      </c>
+      <c r="L4" t="s">
+        <v>244</v>
+      </c>
+      <c r="M4" t="s">
+        <v>242</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" t="s">
+        <v>322</v>
+      </c>
+      <c r="S4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T4" t="s">
+        <v>389</v>
+      </c>
+      <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" t="s">
+        <v>439</v>
+      </c>
+      <c r="X4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>466</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>497</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>540</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>446</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>605</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>618</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>263</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>242</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>308</v>
+      </c>
+      <c r="P5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>323</v>
+      </c>
+      <c r="S5" t="s">
+        <v>355</v>
+      </c>
+      <c r="T5" t="s">
+        <v>390</v>
+      </c>
+      <c r="U5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" t="s">
+        <v>250</v>
+      </c>
+      <c r="W5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>467</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>498</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>541</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>585</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>619</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>299</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" t="s">
+        <v>324</v>
+      </c>
+      <c r="S6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T6" t="s">
+        <v>391</v>
+      </c>
+      <c r="U6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" t="s">
+        <v>88</v>
+      </c>
+      <c r="W6" t="s">
+        <v>242</v>
+      </c>
+      <c r="X6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>542</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>586</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>607</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>619</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>300</v>
+      </c>
+      <c r="L7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M7" t="s">
+        <v>242</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" t="s">
+        <v>325</v>
+      </c>
+      <c r="S7" t="s">
+        <v>357</v>
+      </c>
+      <c r="T7" t="s">
+        <v>392</v>
+      </c>
+      <c r="U7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" t="s">
+        <v>84</v>
+      </c>
+      <c r="W7" t="s">
+        <v>440</v>
+      </c>
+      <c r="X7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>500</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>543</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>587</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>620</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>285</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>242</v>
+      </c>
+      <c r="L8" t="s">
+        <v>244</v>
+      </c>
+      <c r="M8" t="s">
+        <v>242</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" t="s">
+        <v>309</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" t="s">
+        <v>326</v>
+      </c>
+      <c r="S8" t="s">
+        <v>358</v>
+      </c>
+      <c r="T8" t="s">
+        <v>393</v>
+      </c>
+      <c r="U8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V8" t="s">
+        <v>425</v>
+      </c>
+      <c r="W8" t="s">
+        <v>326</v>
+      </c>
+      <c r="X8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>326</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>326</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>621</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="H9" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>301</v>
+      </c>
+      <c r="L9" t="s">
+        <v>244</v>
+      </c>
+      <c r="M9" t="s">
+        <v>242</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>310</v>
+      </c>
+      <c r="P9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" t="s">
+        <v>327</v>
+      </c>
+      <c r="S9" t="s">
+        <v>359</v>
+      </c>
+      <c r="T9" t="s">
+        <v>394</v>
+      </c>
+      <c r="U9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" t="s">
+        <v>248</v>
+      </c>
+      <c r="W9" t="s">
+        <v>234</v>
+      </c>
+      <c r="X9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>470</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>502</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>585</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>613</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>619</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>302</v>
+      </c>
+      <c r="L10" t="s">
+        <v>242</v>
+      </c>
+      <c r="M10" t="s">
+        <v>242</v>
+      </c>
+      <c r="N10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" t="s">
+        <v>328</v>
+      </c>
+      <c r="S10" t="s">
+        <v>360</v>
+      </c>
+      <c r="T10" t="s">
+        <v>395</v>
+      </c>
+      <c r="U10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" t="s">
+        <v>426</v>
+      </c>
+      <c r="W10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>503</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>580</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>621</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>49</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" t="s">
+        <v>242</v>
+      </c>
+      <c r="N11" t="s">
+        <v>242</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11" t="s">
+        <v>329</v>
+      </c>
+      <c r="S11" t="s">
+        <v>361</v>
+      </c>
+      <c r="T11" t="s">
+        <v>396</v>
+      </c>
+      <c r="U11" t="s">
+        <v>242</v>
+      </c>
+      <c r="V11" t="s">
+        <v>79</v>
+      </c>
+      <c r="W11" t="s">
+        <v>224</v>
+      </c>
+      <c r="X11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>472</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>504</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>547</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>446</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>588</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>608</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>621</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>263</v>
+      </c>
+      <c r="L12" t="s">
+        <v>242</v>
+      </c>
+      <c r="M12" t="s">
+        <v>242</v>
+      </c>
+      <c r="N12" t="s">
+        <v>242</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" t="s">
+        <v>330</v>
+      </c>
+      <c r="S12" t="s">
+        <v>362</v>
+      </c>
+      <c r="T12" t="s">
+        <v>397</v>
+      </c>
+      <c r="U12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" t="s">
+        <v>309</v>
+      </c>
+      <c r="W12" t="s">
+        <v>442</v>
+      </c>
+      <c r="X12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>548</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>589</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>622</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="J13" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
+        <v>267</v>
+      </c>
+      <c r="L13" t="s">
+        <v>244</v>
+      </c>
+      <c r="M13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" t="s">
+        <v>331</v>
+      </c>
+      <c r="S13" t="s">
+        <v>363</v>
+      </c>
+      <c r="T13" t="s">
+        <v>398</v>
+      </c>
+      <c r="U13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" t="s">
+        <v>252</v>
+      </c>
+      <c r="W13" t="s">
+        <v>218</v>
+      </c>
+      <c r="X13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>506</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>549</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>578</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>582</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>590</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>249</v>
+      </c>
+      <c r="I14" t="s">
+        <v>263</v>
+      </c>
+      <c r="J14" t="s">
+        <v>282</v>
+      </c>
+      <c r="K14" t="s">
+        <v>267</v>
+      </c>
+      <c r="L14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" t="s">
+        <v>242</v>
+      </c>
+      <c r="N14" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" t="s">
+        <v>332</v>
+      </c>
+      <c r="S14" t="s">
+        <v>364</v>
+      </c>
+      <c r="T14" t="s">
+        <v>399</v>
+      </c>
+      <c r="U14" t="s">
+        <v>49</v>
+      </c>
+      <c r="V14" t="s">
+        <v>427</v>
+      </c>
+      <c r="W14" t="s">
+        <v>443</v>
+      </c>
+      <c r="X14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" t="s">
-        <v>143</v>
-      </c>
-      <c r="I14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" t="s">
-        <v>109</v>
+      <c r="AA14" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>507</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>550</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>576</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>443</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>583</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>535</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>619</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>227</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>281</v>
       </c>
       <c r="K15" t="s">
-        <v>109</v>
+        <v>263</v>
+      </c>
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" t="s">
+        <v>242</v>
+      </c>
+      <c r="N15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" t="s">
+        <v>311</v>
+      </c>
+      <c r="P15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15" t="s">
+        <v>323</v>
+      </c>
+      <c r="S15" t="s">
+        <v>365</v>
+      </c>
+      <c r="T15" t="s">
+        <v>400</v>
+      </c>
+      <c r="U15" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" t="s">
+        <v>308</v>
+      </c>
+      <c r="W15" t="s">
+        <v>219</v>
+      </c>
+      <c r="X15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>534</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>551</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>446</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>591</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>623</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H16" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>264</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>289</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>267</v>
+      </c>
+      <c r="L16" t="s">
+        <v>244</v>
+      </c>
+      <c r="M16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>55</v>
+      </c>
+      <c r="R16" t="s">
+        <v>333</v>
+      </c>
+      <c r="S16" t="s">
+        <v>242</v>
+      </c>
+      <c r="T16" t="s">
+        <v>49</v>
+      </c>
+      <c r="U16" t="s">
+        <v>50</v>
+      </c>
+      <c r="V16" t="s">
+        <v>428</v>
+      </c>
+      <c r="W16" t="s">
+        <v>234</v>
+      </c>
+      <c r="X16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>535</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>592</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>619</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>290</v>
       </c>
       <c r="K17" t="s">
-        <v>109</v>
+        <v>303</v>
+      </c>
+      <c r="L17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M17" t="s">
+        <v>242</v>
+      </c>
+      <c r="N17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" t="s">
+        <v>334</v>
+      </c>
+      <c r="S17" t="s">
+        <v>366</v>
+      </c>
+      <c r="T17" t="s">
+        <v>401</v>
+      </c>
+      <c r="U17" t="s">
+        <v>61</v>
+      </c>
+      <c r="V17" t="s">
+        <v>249</v>
+      </c>
+      <c r="W17" t="s">
+        <v>223</v>
+      </c>
+      <c r="X17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>581</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>621</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>243</v>
+      </c>
+      <c r="I18" t="s">
+        <v>266</v>
+      </c>
+      <c r="J18" t="s">
+        <v>281</v>
+      </c>
+      <c r="K18" t="s">
+        <v>288</v>
+      </c>
+      <c r="L18" t="s">
+        <v>242</v>
+      </c>
+      <c r="M18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" t="s">
+        <v>335</v>
+      </c>
+      <c r="S18" t="s">
+        <v>367</v>
+      </c>
+      <c r="T18" t="s">
+        <v>402</v>
+      </c>
+      <c r="U18" t="s">
+        <v>49</v>
+      </c>
+      <c r="V18" t="s">
+        <v>88</v>
+      </c>
+      <c r="W18" t="s">
+        <v>343</v>
+      </c>
+      <c r="X18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z18" t="s">
         <v>71</v>
       </c>
-      <c r="C18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" t="s">
-        <v>109</v>
+      <c r="AA18" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>554</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>593</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>242</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>618</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="I19" t="s">
-        <v>109</v>
+        <v>267</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="K19" t="s">
-        <v>109</v>
+        <v>266</v>
+      </c>
+      <c r="L19" t="s">
+        <v>244</v>
+      </c>
+      <c r="M19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" t="s">
+        <v>242</v>
+      </c>
+      <c r="O19" t="s">
+        <v>312</v>
+      </c>
+      <c r="P19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>62</v>
+      </c>
+      <c r="R19" t="s">
+        <v>244</v>
+      </c>
+      <c r="S19" t="s">
+        <v>368</v>
+      </c>
+      <c r="T19" t="s">
+        <v>403</v>
+      </c>
+      <c r="U19" t="s">
+        <v>60</v>
+      </c>
+      <c r="V19" t="s">
+        <v>249</v>
+      </c>
+      <c r="W19" t="s">
+        <v>227</v>
+      </c>
+      <c r="X19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>480</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>512</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>534</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>555</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>594</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>242</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>609</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>624</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="J20" t="s">
-        <v>110</v>
+        <v>291</v>
       </c>
       <c r="K20" t="s">
-        <v>110</v>
+        <v>273</v>
+      </c>
+      <c r="L20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20" t="s">
+        <v>336</v>
+      </c>
+      <c r="S20" t="s">
+        <v>369</v>
+      </c>
+      <c r="T20" t="s">
+        <v>404</v>
+      </c>
+      <c r="U20" t="s">
+        <v>49</v>
+      </c>
+      <c r="V20" t="s">
+        <v>429</v>
+      </c>
+      <c r="W20" t="s">
+        <v>444</v>
+      </c>
+      <c r="X20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>513</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>556</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>444</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>584</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>622</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H21" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="J21" t="s">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="K21" t="s">
-        <v>109</v>
+        <v>266</v>
+      </c>
+      <c r="L21" t="s">
+        <v>244</v>
+      </c>
+      <c r="M21" t="s">
+        <v>242</v>
+      </c>
+      <c r="N21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>61</v>
+      </c>
+      <c r="R21" t="s">
+        <v>337</v>
+      </c>
+      <c r="S21" t="s">
+        <v>370</v>
+      </c>
+      <c r="T21" t="s">
+        <v>405</v>
+      </c>
+      <c r="U21" t="s">
+        <v>62</v>
+      </c>
+      <c r="V21" t="s">
+        <v>430</v>
+      </c>
+      <c r="W21" t="s">
+        <v>445</v>
+      </c>
+      <c r="X21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>482</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>514</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>557</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>534</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>622</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c r="H22" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="J22" t="s">
-        <v>110</v>
+        <v>288</v>
       </c>
       <c r="K22" t="s">
-        <v>110</v>
+        <v>263</v>
+      </c>
+      <c r="L22" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" t="s">
+        <v>313</v>
+      </c>
+      <c r="P22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>338</v>
+      </c>
+      <c r="S22" t="s">
+        <v>371</v>
+      </c>
+      <c r="T22" t="s">
+        <v>406</v>
+      </c>
+      <c r="U22" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" t="s">
+        <v>252</v>
+      </c>
+      <c r="W22" t="s">
+        <v>242</v>
+      </c>
+      <c r="X22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>558</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>595</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>622</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s">
-        <v>109</v>
+        <v>49</v>
+      </c>
+      <c r="L23" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" t="s">
+        <v>242</v>
+      </c>
+      <c r="N23" t="s">
+        <v>242</v>
+      </c>
+      <c r="O23" t="s">
+        <v>314</v>
+      </c>
+      <c r="P23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>53</v>
+      </c>
+      <c r="R23" t="s">
+        <v>339</v>
+      </c>
+      <c r="S23" t="s">
+        <v>372</v>
+      </c>
+      <c r="T23" t="s">
+        <v>407</v>
+      </c>
+      <c r="U23" t="s">
+        <v>49</v>
+      </c>
+      <c r="V23" t="s">
+        <v>252</v>
+      </c>
+      <c r="W23" t="s">
+        <v>224</v>
+      </c>
+      <c r="X23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>484</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>516</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>559</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>596</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>618</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="J24" t="s">
-        <v>109</v>
+        <v>292</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
+        <v>304</v>
+      </c>
+      <c r="L24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" t="s">
+        <v>340</v>
+      </c>
+      <c r="S24" t="s">
+        <v>373</v>
+      </c>
+      <c r="T24" t="s">
+        <v>408</v>
+      </c>
+      <c r="U24" t="s">
+        <v>49</v>
+      </c>
+      <c r="V24" t="s">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s">
+        <v>224</v>
+      </c>
+      <c r="X24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>517</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>537</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>560</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>446</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>446</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>597</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>614</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>621</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H25" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="I25" t="s">
-        <v>152</v>
+        <v>272</v>
       </c>
       <c r="J25" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="K25" t="s">
-        <v>109</v>
+        <v>267</v>
+      </c>
+      <c r="L25" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" t="s">
+        <v>242</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>54</v>
+      </c>
+      <c r="R25" t="s">
+        <v>341</v>
+      </c>
+      <c r="S25" t="s">
+        <v>374</v>
+      </c>
+      <c r="T25" t="s">
+        <v>409</v>
+      </c>
+      <c r="U25" t="s">
+        <v>60</v>
+      </c>
+      <c r="V25" t="s">
+        <v>62</v>
+      </c>
+      <c r="W25" t="s">
+        <v>242</v>
+      </c>
+      <c r="X25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>486</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>518</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>561</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>598</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>622</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="J26" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="K26" t="s">
-        <v>109</v>
+        <v>263</v>
+      </c>
+      <c r="L26" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" t="s">
+        <v>242</v>
+      </c>
+      <c r="N26" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" t="s">
+        <v>315</v>
+      </c>
+      <c r="P26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>51</v>
+      </c>
+      <c r="R26" t="s">
+        <v>326</v>
+      </c>
+      <c r="S26" t="s">
+        <v>375</v>
+      </c>
+      <c r="T26" t="s">
+        <v>410</v>
+      </c>
+      <c r="U26" t="s">
+        <v>50</v>
+      </c>
+      <c r="V26" t="s">
+        <v>431</v>
+      </c>
+      <c r="W26" t="s">
+        <v>446</v>
+      </c>
+      <c r="X26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>456</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>562</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>446</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>326</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>326</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>316</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>615</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>619</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="I27" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="J27" t="s">
-        <v>109</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s">
-        <v>109</v>
+        <v>263</v>
+      </c>
+      <c r="L27" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" t="s">
+        <v>49</v>
+      </c>
+      <c r="N27" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>55</v>
+      </c>
+      <c r="R27" t="s">
+        <v>342</v>
+      </c>
+      <c r="S27" t="s">
+        <v>376</v>
+      </c>
+      <c r="T27" t="s">
+        <v>411</v>
+      </c>
+      <c r="U27" t="s">
+        <v>49</v>
+      </c>
+      <c r="V27" t="s">
+        <v>432</v>
+      </c>
+      <c r="W27" t="s">
+        <v>218</v>
+      </c>
+      <c r="X27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>563</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>599</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>622</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="K28" t="s">
-        <v>109</v>
+        <v>263</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="s">
+        <v>242</v>
+      </c>
+      <c r="N28" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>52</v>
+      </c>
+      <c r="R28" t="s">
+        <v>343</v>
+      </c>
+      <c r="S28" t="s">
+        <v>377</v>
+      </c>
+      <c r="T28" t="s">
+        <v>412</v>
+      </c>
+      <c r="U28" t="s">
+        <v>50</v>
+      </c>
+      <c r="V28" t="s">
+        <v>316</v>
+      </c>
+      <c r="W28" t="s">
+        <v>242</v>
+      </c>
+      <c r="X28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>521</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>537</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>564</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>610</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>621</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="G29" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="H29" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="I29" t="s">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="J29" t="s">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="K29" t="s">
-        <v>109</v>
+        <v>263</v>
+      </c>
+      <c r="L29" t="s">
+        <v>242</v>
+      </c>
+      <c r="M29" t="s">
+        <v>242</v>
+      </c>
+      <c r="N29" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>51</v>
+      </c>
+      <c r="R29" t="s">
+        <v>344</v>
+      </c>
+      <c r="S29" t="s">
+        <v>378</v>
+      </c>
+      <c r="T29" t="s">
+        <v>413</v>
+      </c>
+      <c r="U29" t="s">
+        <v>49</v>
+      </c>
+      <c r="V29" t="s">
+        <v>63</v>
+      </c>
+      <c r="W29" t="s">
+        <v>447</v>
+      </c>
+      <c r="X29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>522</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>565</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>577</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>319</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>618</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="I30" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="J30" t="s">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="K30" t="s">
-        <v>110</v>
+        <v>267</v>
+      </c>
+      <c r="L30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" t="s">
+        <v>49</v>
+      </c>
+      <c r="N30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O30" t="s">
+        <v>316</v>
+      </c>
+      <c r="P30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>52</v>
+      </c>
+      <c r="R30" t="s">
+        <v>345</v>
+      </c>
+      <c r="S30" t="s">
+        <v>379</v>
+      </c>
+      <c r="T30" t="s">
+        <v>414</v>
+      </c>
+      <c r="U30" t="s">
+        <v>50</v>
+      </c>
+      <c r="V30" t="s">
+        <v>433</v>
+      </c>
+      <c r="W30" t="s">
+        <v>222</v>
+      </c>
+      <c r="X30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>523</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>538</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>566</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>600</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>619</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="H31" t="s">
-        <v>143</v>
+        <v>254</v>
       </c>
       <c r="I31" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="J31" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="K31" t="s">
-        <v>110</v>
+        <v>263</v>
+      </c>
+      <c r="L31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M31" t="s">
+        <v>49</v>
+      </c>
+      <c r="N31" t="s">
+        <v>49</v>
+      </c>
+      <c r="O31" t="s">
+        <v>317</v>
+      </c>
+      <c r="P31" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>54</v>
+      </c>
+      <c r="R31" t="s">
+        <v>346</v>
+      </c>
+      <c r="S31" t="s">
+        <v>380</v>
+      </c>
+      <c r="T31" t="s">
+        <v>415</v>
+      </c>
+      <c r="U31" t="s">
+        <v>49</v>
+      </c>
+      <c r="V31" t="s">
+        <v>434</v>
+      </c>
+      <c r="W31" t="s">
+        <v>227</v>
+      </c>
+      <c r="X31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>491</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>524</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>567</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>601</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>616</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>619</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="H32" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="J32" t="s">
-        <v>109</v>
+        <v>295</v>
       </c>
       <c r="K32" t="s">
-        <v>109</v>
+        <v>267</v>
+      </c>
+      <c r="L32" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32" t="s">
+        <v>308</v>
+      </c>
+      <c r="P32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>54</v>
+      </c>
+      <c r="R32" t="s">
+        <v>347</v>
+      </c>
+      <c r="S32" t="s">
+        <v>381</v>
+      </c>
+      <c r="T32" t="s">
+        <v>416</v>
+      </c>
+      <c r="U32" t="s">
+        <v>49</v>
+      </c>
+      <c r="V32" t="s">
+        <v>435</v>
+      </c>
+      <c r="W32" t="s">
+        <v>242</v>
+      </c>
+      <c r="X32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>492</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>525</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>568</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>326</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>253</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>621</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H33" t="s">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="I33" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="J33" t="s">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s">
-        <v>109</v>
+        <v>263</v>
+      </c>
+      <c r="L33" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" t="s">
+        <v>242</v>
+      </c>
+      <c r="N33" t="s">
+        <v>242</v>
+      </c>
+      <c r="O33" t="s">
+        <v>318</v>
+      </c>
+      <c r="P33" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" t="s">
+        <v>348</v>
+      </c>
+      <c r="S33" t="s">
+        <v>382</v>
+      </c>
+      <c r="T33" t="s">
+        <v>417</v>
+      </c>
+      <c r="U33" t="s">
+        <v>49</v>
+      </c>
+      <c r="V33" t="s">
+        <v>434</v>
+      </c>
+      <c r="W33" t="s">
+        <v>242</v>
+      </c>
+      <c r="X33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>534</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>569</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>579</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>316</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>619</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="G34" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H34" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="I34" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="J34" t="s">
-        <v>110</v>
+        <v>282</v>
       </c>
       <c r="K34" t="s">
-        <v>109</v>
+        <v>263</v>
+      </c>
+      <c r="L34" t="s">
+        <v>244</v>
+      </c>
+      <c r="M34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N34" t="s">
+        <v>49</v>
+      </c>
+      <c r="O34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P34" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R34" t="s">
+        <v>349</v>
+      </c>
+      <c r="S34" t="s">
+        <v>383</v>
+      </c>
+      <c r="T34" t="s">
+        <v>418</v>
+      </c>
+      <c r="U34" t="s">
+        <v>49</v>
+      </c>
+      <c r="V34" t="s">
+        <v>436</v>
+      </c>
+      <c r="W34" t="s">
+        <v>230</v>
+      </c>
+      <c r="X34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>527</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>539</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>570</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>595</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>619</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="F35" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="H35" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="I35" t="s">
-        <v>109</v>
+        <v>265</v>
       </c>
       <c r="J35" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s">
-        <v>109</v>
+        <v>265</v>
+      </c>
+      <c r="L35" t="s">
+        <v>242</v>
+      </c>
+      <c r="M35" t="s">
+        <v>242</v>
+      </c>
+      <c r="N35" t="s">
+        <v>242</v>
+      </c>
+      <c r="O35" t="s">
+        <v>250</v>
+      </c>
+      <c r="P35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>52</v>
+      </c>
+      <c r="R35" t="s">
+        <v>350</v>
+      </c>
+      <c r="S35" t="s">
+        <v>384</v>
+      </c>
+      <c r="T35" t="s">
+        <v>419</v>
+      </c>
+      <c r="U35" t="s">
+        <v>49</v>
+      </c>
+      <c r="V35" t="s">
+        <v>84</v>
+      </c>
+      <c r="W35" t="s">
+        <v>218</v>
+      </c>
+      <c r="X35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>494</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>528</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>571</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>592</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>618</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="G36" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="H36" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="I36" t="s">
-        <v>110</v>
+        <v>265</v>
       </c>
       <c r="J36" t="s">
-        <v>110</v>
+        <v>296</v>
       </c>
       <c r="K36" t="s">
-        <v>110</v>
+        <v>305</v>
+      </c>
+      <c r="L36" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" t="s">
+        <v>242</v>
+      </c>
+      <c r="N36" t="s">
+        <v>242</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>58</v>
+      </c>
+      <c r="R36" t="s">
+        <v>351</v>
+      </c>
+      <c r="S36" t="s">
+        <v>385</v>
+      </c>
+      <c r="T36" t="s">
+        <v>420</v>
+      </c>
+      <c r="U36" t="s">
+        <v>55</v>
+      </c>
+      <c r="V36" t="s">
+        <v>88</v>
+      </c>
+      <c r="W36" t="s">
+        <v>242</v>
+      </c>
+      <c r="X36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>572</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>595</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>242</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>617</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>619</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>211</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="G37" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H37" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="I37" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="J37" t="s">
-        <v>110</v>
+        <v>281</v>
       </c>
       <c r="K37" t="s">
-        <v>110</v>
+        <v>306</v>
+      </c>
+      <c r="L37" t="s">
+        <v>244</v>
+      </c>
+      <c r="M37" t="s">
+        <v>49</v>
+      </c>
+      <c r="N37" t="s">
+        <v>49</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>56</v>
+      </c>
+      <c r="R37" t="s">
+        <v>352</v>
+      </c>
+      <c r="S37" t="s">
+        <v>386</v>
+      </c>
+      <c r="T37" t="s">
+        <v>421</v>
+      </c>
+      <c r="U37" t="s">
+        <v>49</v>
+      </c>
+      <c r="V37" t="s">
+        <v>437</v>
+      </c>
+      <c r="W37" t="s">
+        <v>242</v>
+      </c>
+      <c r="X37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>530</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>573</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>446</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>600</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>622</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="I38" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="J38" t="s">
-        <v>109</v>
+        <v>289</v>
       </c>
       <c r="K38" t="s">
-        <v>110</v>
+        <v>261</v>
+      </c>
+      <c r="L38" t="s">
+        <v>242</v>
+      </c>
+      <c r="M38" t="s">
+        <v>49</v>
+      </c>
+      <c r="N38" t="s">
+        <v>49</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>54</v>
+      </c>
+      <c r="R38" t="s">
+        <v>322</v>
+      </c>
+      <c r="S38" t="s">
+        <v>387</v>
+      </c>
+      <c r="T38" t="s">
+        <v>422</v>
+      </c>
+      <c r="U38" t="s">
+        <v>49</v>
+      </c>
+      <c r="V38" t="s">
+        <v>309</v>
+      </c>
+      <c r="W38" t="s">
+        <v>224</v>
+      </c>
+      <c r="X38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>574</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>602</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>618</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="G39" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H39" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="I39" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="J39" t="s">
-        <v>109</v>
+        <v>297</v>
       </c>
       <c r="K39" t="s">
-        <v>110</v>
+        <v>307</v>
+      </c>
+      <c r="L39" t="s">
+        <v>49</v>
+      </c>
+      <c r="M39" t="s">
+        <v>242</v>
+      </c>
+      <c r="N39" t="s">
+        <v>49</v>
+      </c>
+      <c r="O39" t="s">
+        <v>319</v>
+      </c>
+      <c r="P39" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>321</v>
+      </c>
+      <c r="R39" t="s">
+        <v>353</v>
+      </c>
+      <c r="S39" t="s">
+        <v>388</v>
+      </c>
+      <c r="T39" t="s">
+        <v>423</v>
+      </c>
+      <c r="U39" t="s">
+        <v>424</v>
+      </c>
+      <c r="V39" t="s">
+        <v>438</v>
+      </c>
+      <c r="W39" t="s">
+        <v>448</v>
+      </c>
+      <c r="X39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>462</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>532</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>575</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>426</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>622</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="L40" t="s">
+        <v>132</v>
+      </c>
+      <c r="M40" t="s">
+        <v>94</v>
+      </c>
+      <c r="N40" t="s">
+        <v>94</v>
+      </c>
+      <c r="O40" t="s">
+        <v>94</v>
+      </c>
+      <c r="P40" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>94</v>
+      </c>
+      <c r="R40" t="s">
+        <v>94</v>
+      </c>
+      <c r="S40" t="s">
+        <v>94</v>
+      </c>
+      <c r="T40" t="s">
+        <v>94</v>
+      </c>
+      <c r="U40" t="s">
+        <v>94</v>
+      </c>
+      <c r="V40" t="s">
+        <v>132</v>
+      </c>
+      <c r="W40" t="s">
+        <v>94</v>
+      </c>
+      <c r="X40" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="L41" t="s">
+        <v>133</v>
+      </c>
+      <c r="M41" t="s">
+        <v>94</v>
+      </c>
+      <c r="N41" t="s">
+        <v>94</v>
+      </c>
+      <c r="O41" t="s">
+        <v>94</v>
+      </c>
+      <c r="P41" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>94</v>
+      </c>
+      <c r="R41" t="s">
+        <v>94</v>
+      </c>
+      <c r="S41" t="s">
+        <v>94</v>
+      </c>
+      <c r="T41" t="s">
+        <v>94</v>
+      </c>
+      <c r="U41" t="s">
+        <v>94</v>
+      </c>
+      <c r="V41" t="s">
+        <v>133</v>
+      </c>
+      <c r="W41" t="s">
+        <v>94</v>
+      </c>
+      <c r="X41" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="H42" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="J42" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="L42" t="s">
+        <v>134</v>
+      </c>
+      <c r="M42" t="s">
+        <v>94</v>
+      </c>
+      <c r="N42" t="s">
+        <v>94</v>
+      </c>
+      <c r="O42" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>94</v>
+      </c>
+      <c r="R42" t="s">
+        <v>94</v>
+      </c>
+      <c r="S42" t="s">
+        <v>94</v>
+      </c>
+      <c r="T42" t="s">
+        <v>94</v>
+      </c>
+      <c r="U42" t="s">
+        <v>94</v>
+      </c>
+      <c r="V42" t="s">
+        <v>134</v>
+      </c>
+      <c r="W42" t="s">
+        <v>94</v>
+      </c>
+      <c r="X42" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="H43" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="J43" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="L43" t="s">
+        <v>135</v>
+      </c>
+      <c r="M43" t="s">
+        <v>94</v>
+      </c>
+      <c r="N43" t="s">
+        <v>94</v>
+      </c>
+      <c r="O43" t="s">
+        <v>94</v>
+      </c>
+      <c r="P43" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>94</v>
+      </c>
+      <c r="R43" t="s">
+        <v>94</v>
+      </c>
+      <c r="S43" t="s">
+        <v>94</v>
+      </c>
+      <c r="T43" t="s">
+        <v>94</v>
+      </c>
+      <c r="U43" t="s">
+        <v>94</v>
+      </c>
+      <c r="V43" t="s">
+        <v>135</v>
+      </c>
+      <c r="W43" t="s">
+        <v>94</v>
+      </c>
+      <c r="X43" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="G44" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="H44" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="L44" t="s">
+        <v>136</v>
+      </c>
+      <c r="M44" t="s">
+        <v>94</v>
+      </c>
+      <c r="N44" t="s">
+        <v>94</v>
+      </c>
+      <c r="O44" t="s">
+        <v>94</v>
+      </c>
+      <c r="P44" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>94</v>
+      </c>
+      <c r="R44" t="s">
+        <v>94</v>
+      </c>
+      <c r="S44" t="s">
+        <v>94</v>
+      </c>
+      <c r="T44" t="s">
+        <v>94</v>
+      </c>
+      <c r="U44" t="s">
+        <v>94</v>
+      </c>
+      <c r="V44" t="s">
+        <v>136</v>
+      </c>
+      <c r="W44" t="s">
+        <v>94</v>
+      </c>
+      <c r="X44" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="H45" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="I45" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="L45" t="s">
+        <v>137</v>
+      </c>
+      <c r="M45" t="s">
+        <v>94</v>
+      </c>
+      <c r="N45" t="s">
+        <v>94</v>
+      </c>
+      <c r="O45" t="s">
+        <v>94</v>
+      </c>
+      <c r="P45" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>94</v>
+      </c>
+      <c r="R45" t="s">
+        <v>94</v>
+      </c>
+      <c r="S45" t="s">
+        <v>94</v>
+      </c>
+      <c r="T45" t="s">
+        <v>94</v>
+      </c>
+      <c r="U45" t="s">
+        <v>94</v>
+      </c>
+      <c r="V45" t="s">
+        <v>137</v>
+      </c>
+      <c r="W45" t="s">
+        <v>94</v>
+      </c>
+      <c r="X45" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="H46" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="I46" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="J46" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="L46" t="s">
+        <v>138</v>
+      </c>
+      <c r="M46" t="s">
+        <v>94</v>
+      </c>
+      <c r="N46" t="s">
+        <v>94</v>
+      </c>
+      <c r="O46" t="s">
+        <v>94</v>
+      </c>
+      <c r="P46" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>94</v>
+      </c>
+      <c r="R46" t="s">
+        <v>94</v>
+      </c>
+      <c r="S46" t="s">
+        <v>94</v>
+      </c>
+      <c r="T46" t="s">
+        <v>94</v>
+      </c>
+      <c r="U46" t="s">
+        <v>94</v>
+      </c>
+      <c r="V46" t="s">
+        <v>138</v>
+      </c>
+      <c r="W46" t="s">
+        <v>94</v>
+      </c>
+      <c r="X46" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
